--- a/templates/templateCourseStudent.xlsx
+++ b/templates/templateCourseStudent.xlsx
@@ -496,42 +496,18 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>enfermeria</v>
+        <v>Computación E Informática</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>mecanica</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="str">
-        <v>contabilidad</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="str">
-        <v>otro programa</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="str">
-        <v>computación e informática</v>
+        <v>Mecánica Agricola</v>
       </c>
     </row>
   </sheetData>

--- a/templates/templateCourseStudent.xlsx
+++ b/templates/templateCourseStudent.xlsx
@@ -499,15 +499,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>Computación E Informática</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Mecánica Agricola</v>
+        <v>computacion</v>
       </c>
     </row>
   </sheetData>
